--- a/Pathway_Automationscript/Pathwayusercredtinals.xlsx
+++ b/Pathway_Automationscript/Pathwayusercredtinals.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pathway\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{488BB495-F895-419B-BEC8-B9982309D89F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB56A5D2-A6FA-4974-B44C-29FE5D36CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23280" windowHeight="13224" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -474,7 +470,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +570,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:demomu@TMobMicrowave.onmicrosoft.com" xr:uid="{42BA8D23-A53B-4D4D-9881-691678EEEA36}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{42BA8D23-A53B-4D4D-9881-691678EEEA36}"/>
     <hyperlink ref="B3" r:id="rId2" display="mailto:demorpm@TMobMicrowave.onmicrosoft.com" xr:uid="{F18F07C2-5BAA-4DFA-9F67-067B84B237BB}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{D8106EFF-5A65-4DD2-AE8C-CC9C22B8DBFF}"/>
     <hyperlink ref="B4" r:id="rId4" display="mailto:demorpm@TMobMicrowave.onmicrosoft.com" xr:uid="{5FA88612-BD3B-4B58-8349-1992B2D44CAD}"/>
